--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9B6D0-EE1E-4B3E-BEE4-B31EB2B85C89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD82CF6A-11AF-47B1-8B0C-FA453C809208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13455" yWindow="3195" windowWidth="20445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id列如果是空的，则此行数据不作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（s开头的不导出到客户端，c开头的不导出到服务端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名（第一个必须是Id或者_id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,12 +525,12 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
@@ -532,6 +548,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -555,6 +574,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -576,6 +598,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -597,6 +622,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="3">
         <v>1001</v>
       </c>
